--- a/rhla_analysis/rhla1_6_normal_result/k3.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k3.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.02317684416450642</v>
+        <v>0.02317684416450648</v>
       </c>
       <c r="B2" t="n">
         <v>0.2846944708280698</v>
@@ -466,12 +466,12 @@
         <v>0.115071283095723</v>
       </c>
       <c r="D2" t="n">
-        <v>12.28357358781649</v>
+        <v>12.28357358781645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01891092680099431</v>
+        <v>0.01891092680099434</v>
       </c>
       <c r="B3" t="n">
         <v>0.2376185294955788</v>
@@ -480,7 +480,7 @@
         <v>0.1208418194161575</v>
       </c>
       <c r="D3" t="n">
-        <v>12.56514458525032</v>
+        <v>12.5651445852503</v>
       </c>
     </row>
     <row r="4">
@@ -494,12 +494,12 @@
         <v>0.103530210454854</v>
       </c>
       <c r="D4" t="n">
-        <v>8.73619683763822</v>
+        <v>8.736196837638218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01782516841193095</v>
+        <v>0.01782516841193091</v>
       </c>
       <c r="B5" t="n">
         <v>0.2611552983915665</v>
@@ -508,12 +508,12 @@
         <v>0.1126951799049559</v>
       </c>
       <c r="D5" t="n">
-        <v>14.65093021038539</v>
+        <v>14.65093021038543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01427194837754175</v>
+        <v>0.01427194837754178</v>
       </c>
       <c r="B6" t="n">
         <v>0.3009277088014949</v>
@@ -522,21 +522,21 @@
         <v>0.1042090970807875</v>
       </c>
       <c r="D6" t="n">
-        <v>21.08525765655325</v>
+        <v>21.08525765655321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.008865719943205858</v>
+        <v>0.008865719943205865</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3026383160654597</v>
+        <v>0.3026383160654596</v>
       </c>
       <c r="C7" t="n">
         <v>0.1082824168363883</v>
       </c>
       <c r="D7" t="n">
-        <v>34.13578570089878</v>
+        <v>34.13578570089874</v>
       </c>
     </row>
     <row r="8">
@@ -550,26 +550,26 @@
         <v>0.1065852002715546</v>
       </c>
       <c r="D8" t="n">
-        <v>14.65988928382192</v>
+        <v>14.65988928382191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0186575541868901</v>
+        <v>0.01865755418689014</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2823234277522927</v>
+        <v>0.2823234277522926</v>
       </c>
       <c r="C9" t="n">
         <v>0.09775967413441955</v>
       </c>
       <c r="D9" t="n">
-        <v>15.1318562403356</v>
+        <v>15.13185624033557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.006627829934542389</v>
+        <v>0.0066278299345424</v>
       </c>
       <c r="B10" t="n">
         <v>0.2495546573136021</v>
@@ -578,12 +578,12 @@
         <v>0.1160896130346232</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6525438609994</v>
+        <v>37.65254386099934</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.007478662729524115</v>
+        <v>0.007478662729524127</v>
       </c>
       <c r="B11" t="n">
         <v>0.2606084984169103</v>
@@ -592,7 +592,7 @@
         <v>0.109979633401222</v>
       </c>
       <c r="D11" t="n">
-        <v>34.84693826184797</v>
+        <v>34.84693826184791</v>
       </c>
     </row>
   </sheetData>
